--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224012.714688133</v>
+        <v>1222125.133171731</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>114.0138441087954</v>
       </c>
       <c r="D2" t="n">
-        <v>137.4812512627714</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.8854510154498</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>350.0151940956522</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>26.40868448976566</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>146.6850513083905</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>82.92375604299535</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>180.2484107694632</v>
       </c>
       <c r="F8" t="n">
-        <v>63.25600352254495</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T10" t="n">
-        <v>6.357987380643406</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139863</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.4952442768017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>250.0068403603051</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>169.827716759979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.1537278750033</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>70.43533402631064</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467366</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056513</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273897</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>33.35146980185866</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>78.97366804880241</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965514</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801196</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437403</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897891</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>14.33330017151078</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523559</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3199,13 +3199,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789432</v>
+        <v>80.78193823789644</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.879478346266</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>944.9169614058544</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2090.6186503862</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>2090.6186503862</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1700.479318410388</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,7 +4407,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2033.346402544967</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>1664.383885604555</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1306.118186997805</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>1306.118186997805</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>2033.346402544967</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4635,40 +4635,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1075.055971578408</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="C8" t="n">
-        <v>1075.055971578408</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="D8" t="n">
-        <v>1075.055971578408</v>
+        <v>737.541684387221</v>
       </c>
       <c r="E8" t="n">
-        <v>689.2677189801636</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.19530355422</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.055971578408</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>359.2716929833838</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>359.2716929833838</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.4843764226425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617345002</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617345002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>746.1328412528823</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286131</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305957</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881927</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5510,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,31 +5531,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>237.7764125461478</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X19" t="n">
-        <v>237.7764125461478</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y19" t="n">
-        <v>237.7764125461478</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,13 +5741,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5756,25 +5756,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028581</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>241.980548233671</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,61 +6212,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805453</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822444</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954966</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
@@ -6464,16 +6464,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.5791743061665</v>
+        <v>439.5324299542183</v>
       </c>
       <c r="C31" t="n">
-        <v>596.4038566596305</v>
+        <v>359.7610480867411</v>
       </c>
       <c r="D31" t="n">
-        <v>502.0480825286657</v>
+        <v>265.4052739557762</v>
       </c>
       <c r="E31" t="n">
-        <v>409.8958542276435</v>
+        <v>265.4052739557762</v>
       </c>
       <c r="F31" t="n">
-        <v>318.7667720111041</v>
+        <v>265.4052739557762</v>
       </c>
       <c r="G31" t="n">
-        <v>206.3523156122953</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
-        <v>111.6951724416099</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899272</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970149</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465078</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.495878540562</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.839573784972</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6108881683257</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.5791743061665</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229682</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083215</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504522</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103118</v>
+        <v>221.5295092103139</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6862,25 +6862,25 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -6971,16 +6971,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,13 +7090,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,13 +7114,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7202,22 +7202,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982972</v>
@@ -7330,31 +7330,31 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525395</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649685</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,43 +7394,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805465</v>
@@ -7643,13 +7643,13 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7713,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.7515527292971</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>43.6598726146251</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>52.497333613053</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>403.7628319612156</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928318</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659905</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>285.1031356539326</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>192.3581855871787</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.08940907529308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>36.51615797628585</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.75693659211578</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.09309322362452</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>216.0876643102804</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24175,16 +24175,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338589</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>79.43092547709139</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338589</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338582</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800786</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.06989642126835</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>40.88268866420401</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>965150.1343228186</v>
+        <v>965150.1343228187</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>965150.1343228187</v>
+        <v>965150.1343228186</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>965150.1343228186</v>
+        <v>965150.1343228187</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>965150.1343228187</v>
+        <v>965150.1343228186</v>
       </c>
     </row>
     <row r="11">
@@ -26314,31 +26314,31 @@
         <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="F2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="G2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="H2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="I2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="J2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
-        <v>427163.2442125334</v>
+        <v>427163.2442125333</v>
       </c>
       <c r="L2" t="n">
         <v>431046.9291787487</v>
@@ -26350,10 +26350,10 @@
         <v>431046.9291787487</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.6053028458</v>
       </c>
     </row>
     <row r="4">
@@ -26418,31 +26418,31 @@
         <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007515</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007503</v>
+        <v>7916.731656007546</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007567</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020407</v>
+        <v>26081.35417020402</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
@@ -26451,13 +26451,13 @@
         <v>30335.51889732802</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.518897328</v>
+        <v>30335.51889732802</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,7 +26500,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002538</v>
@@ -26522,46 +26522,46 @@
         <v>-389697.076815126</v>
       </c>
       <c r="C6" t="n">
-        <v>200270.8023994184</v>
+        <v>200270.8023994185</v>
       </c>
       <c r="D6" t="n">
-        <v>200270.8023994184</v>
+        <v>200270.8023994185</v>
       </c>
       <c r="E6" t="n">
-        <v>-214483.5813570258</v>
+        <v>-214581.0404829982</v>
       </c>
       <c r="F6" t="n">
-        <v>310676.4551198703</v>
+        <v>310578.9959938981</v>
       </c>
       <c r="G6" t="n">
-        <v>310676.4551198701</v>
+        <v>310578.9959938981</v>
       </c>
       <c r="H6" t="n">
-        <v>310676.4551198701</v>
+        <v>310578.995993898</v>
       </c>
       <c r="I6" t="n">
-        <v>310676.4551198701</v>
+        <v>310578.995993898</v>
       </c>
       <c r="J6" t="n">
-        <v>134253.2359272773</v>
+        <v>134155.776801305</v>
       </c>
       <c r="K6" t="n">
-        <v>260291.0762092608</v>
+        <v>260272.5824713265</v>
       </c>
       <c r="L6" t="n">
-        <v>292653.3976605285</v>
+        <v>292653.3976605284</v>
       </c>
       <c r="M6" t="n">
-        <v>168195.2892275582</v>
+        <v>168195.2892275583</v>
       </c>
       <c r="N6" t="n">
+        <v>302996.3044613954</v>
+      </c>
+      <c r="O6" t="n">
         <v>302996.3044613953</v>
       </c>
-      <c r="O6" t="n">
-        <v>302996.3044613954</v>
-      </c>
       <c r="P6" t="n">
-        <v>258833.6991585496</v>
+        <v>258833.6991585495</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,22 +26741,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26768,7 +26768,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>251.2590476622121</v>
       </c>
       <c r="D2" t="n">
-        <v>217.2017903579115</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>16.6375473211412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>56.86085164605925</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>28.06971808504603</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>20.56176979023729</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>142.1113494150889</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>201.6819593027986</v>
       </c>
       <c r="F8" t="n">
-        <v>343.6200422191665</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T10" t="n">
-        <v>218.6771180774409</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29290,10 +29290,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33740,7 +33740,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33749,10 +33749,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>744.1759297797634</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>250.7532875461497</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543134</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>259.5907485445777</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412273</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043196</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>736.9574053592285</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>201.6157249145282</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,7 +37470,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>618.5494866776701</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,16 +37868,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>179.2506324680955</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>492.1965505854573</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
